--- a/biology/Botanique/Jardin_botanique_de_Moscou/Jardin_botanique_de_Moscou.xlsx
+++ b/biology/Botanique/Jardin_botanique_de_Moscou/Jardin_botanique_de_Moscou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin botanique de Moscou, ou officiellement jardin botanique principal de l'académie des sciences de Russie du nom de Nikolaï Tsitsine (Главный ботанический сад имени Н.В. Цицин РАН) est l'un des plus grands jardins botaniques d'Europe. Son parc de 130 hectares est situé dans le district administratif nord-est de Moscou.
@@ -514,7 +526,9 @@
           <t>Illustrations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Bouleaux du parc
@@ -553,7 +567,9 @@
           <t>Roseraie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Vue de la roseraie (rosarium)
